--- a/문서/기획/밸런스 패치.xlsx
+++ b/문서/기획/밸런스 패치.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017\WebMo\Gaia_Github3\문서\기획\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="13005" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="13005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="탭 당 점수" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="시간당 점수" sheetId="4" r:id="rId3"/>
     <sheet name="물 주기, 날씨 관련" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,23 +38,6 @@
   <si>
     <t>기본 탭 점수</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃 3</t>
-  </si>
-  <si>
-    <t>꽃 4</t>
-  </si>
-  <si>
-    <t>꽃 5</t>
   </si>
   <si>
     <t>스킬1</t>
@@ -327,11 +315,23 @@
     <t>눈, 태풍, 가뭄, 폭우 시 15분 이상 꺼내놓으면 식물 사망</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>장미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철쭉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
@@ -1115,27 +1115,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1178,31 +1157,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1217,13 +1175,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1232,28 +1214,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1262,13 +1229,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,6 +1280,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1328,7 +1331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1361,9 +1364,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1396,6 +1416,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1571,11 +1608,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1202"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="P267" sqref="P267"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1596,31 +1633,31 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22"/>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="47"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="72"/>
+      <c r="F1" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="72"/>
+      <c r="H1" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="72"/>
+      <c r="J1" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="72"/>
+      <c r="L1" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="72"/>
+      <c r="N1" s="70"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -1662,7 +1699,7 @@
       <c r="M2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="47"/>
+      <c r="N2" s="70"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="R2" s="1"/>
@@ -1719,7 +1756,7 @@
         <v>150</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -1781,7 +1818,7 @@
         <v>315</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -13104,7 +13141,7 @@
         <v>492</v>
       </c>
       <c r="O196">
-        <f t="shared" ref="O196:O202" si="39">ROUNDDOWN((B196+D196),0)</f>
+        <f t="shared" ref="O196:O201" si="39">ROUNDDOWN((B196+D196),0)</f>
         <v>9264060</v>
       </c>
       <c r="P196">
@@ -24845,7 +24882,7 @@
         <v>1327</v>
       </c>
       <c r="O395">
-        <f t="shared" ref="O395:O402" si="85">ROUNDDOWN((B395+D395+F196),0)</f>
+        <f t="shared" ref="O395:O401" si="85">ROUNDDOWN((B395+D395+F196),0)</f>
         <v>1062751100</v>
       </c>
       <c r="P395">
@@ -42266,14 +42303,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -42284,26 +42322,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="49"/>
+      <c r="B1" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="75"/>
+      <c r="H1" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -42313,37 +42351,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="45" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -42381,7 +42419,7 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N3" s="42">
         <v>2</v>
@@ -42422,7 +42460,7 @@
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N4" s="42">
         <v>5</v>
@@ -42463,7 +42501,7 @@
         <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N5" s="42">
         <v>1</v>
@@ -42504,7 +42542,7 @@
         <v>40</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -43431,7 +43469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -43447,10 +43485,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C1" s="41" t="s">
         <v>2</v>
@@ -43458,10 +43496,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" s="16">
         <v>89396</v>
@@ -43469,10 +43507,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6">
         <v>2249256</v>
@@ -43480,10 +43518,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6">
         <v>49095072</v>
@@ -43491,7 +43529,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6">
         <v>995300768</v>
@@ -43499,7 +43537,7 @@
     </row>
     <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="38" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" s="9">
         <v>19276886144</v>
@@ -43512,10 +43550,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -43529,53 +43567,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
+      <c r="A1" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="A2" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+        <v>31</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>61</v>
+        <v>35</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>56</v>
       </c>
       <c r="L4" s="32"/>
       <c r="M4" s="32"/>
@@ -43585,257 +43623,257 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>64</v>
+      <c r="C5" s="49" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>63</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="78" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
+      <c r="A9" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="71" t="s">
+      <c r="A10" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="87" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="62">
+        <v>31</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="55">
         <v>0.08</v>
       </c>
-      <c r="E11" s="46"/>
+      <c r="E11" s="87"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="61">
+        <v>35</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="96"/>
+      <c r="D12" s="54">
         <v>0.12</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="87"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="61">
+        <v>34</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="96"/>
+      <c r="D13" s="54">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="61">
+        <v>33</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="96"/>
+      <c r="D14" s="54">
         <v>0.04</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="63">
+        <v>32</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="97"/>
+      <c r="D15" s="56">
         <v>0.08</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
+      <c r="A17" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="94"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>58</v>
+      <c r="A18" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="88" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="62">
+        <v>31</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="55">
         <v>0.03</v>
       </c>
-      <c r="E19" s="72"/>
+      <c r="E19" s="88"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="61">
+        <v>35</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="77"/>
+      <c r="D20" s="54">
         <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="61">
+        <v>34</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="61">
+        <v>33</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="77"/>
+      <c r="D22" s="54">
         <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="63">
+        <v>32</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="78"/>
+      <c r="D23" s="56">
         <v>0.05</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="97"/>
+      <c r="A25" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="94"/>
+      <c r="A26" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="83"/>
       <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89"/>
+      <c r="A27" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="85"/>
+      <c r="D27" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="C11:C15"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/기획/밸런스 패치.xlsx
+++ b/문서/기획/밸런스 패치.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017\WebMo\Gaia_Github3\문서\기획\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="13005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="315" windowWidth="28035" windowHeight="12825" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="탭 당 점수" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="시간당 점수" sheetId="4" r:id="rId3"/>
     <sheet name="물 주기, 날씨 관련" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="238">
   <si>
     <t>레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +33,23 @@
   <si>
     <t>기본 탭 점수</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃 3</t>
+  </si>
+  <si>
+    <t>꽃 4</t>
+  </si>
+  <si>
+    <t>꽃 5</t>
   </si>
   <si>
     <t>스킬1</t>
@@ -92,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>효과(배율)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,22 +125,6 @@
   </si>
   <si>
     <t>지속 스킬 쿨타임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 스킬1 비용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 스킬2 비용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 스킬3 비용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 스킬 쿨타임 부여?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -316,26 +308,536 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장미</t>
+    <t>DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>철쭉</t>
+    <t>효과(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>호야</t>
+    <t>4-13-1-170-26</t>
+  </si>
+  <si>
+    <t>4-13-1-170-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에 넣을 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1-2-100-12</t>
+  </si>
+  <si>
+    <t>1-11-1-50-33</t>
+  </si>
+  <si>
+    <t>1-12-1-50-36</t>
+  </si>
+  <si>
+    <t>1-13-1-50-39</t>
+  </si>
+  <si>
+    <t>1-14-1-50-42</t>
+  </si>
+  <si>
+    <t>1-15-1-50-45</t>
+  </si>
+  <si>
+    <t>1-16-1-60-48</t>
+  </si>
+  <si>
+    <t>1-17-1-70-51</t>
+  </si>
+  <si>
+    <t>1-18-1-80-54</t>
+  </si>
+  <si>
+    <t>1-19-1-90-57</t>
+  </si>
+  <si>
+    <t>1-20-1-100-60</t>
+  </si>
+  <si>
+    <t>1-21-1-110-63</t>
+  </si>
+  <si>
+    <t>1-22-1-120-66</t>
+  </si>
+  <si>
+    <t>1-23-1-130-69</t>
+  </si>
+  <si>
+    <t>1-24-1-140-72</t>
+  </si>
+  <si>
+    <t>1-25-1-150-75</t>
+  </si>
+  <si>
+    <t>1-26-1-160-78</t>
+  </si>
+  <si>
+    <t>1-27-1-170-81</t>
+  </si>
+  <si>
+    <t>1-28-1-180-84</t>
+  </si>
+  <si>
+    <t>1-29-1-190-87</t>
+  </si>
+  <si>
+    <t>1-30-1-200-90</t>
+  </si>
+  <si>
+    <t>2-1-2-100-50</t>
+  </si>
+  <si>
+    <t>2-2-2-500-100</t>
+  </si>
+  <si>
+    <t>2-11-1-50-600</t>
+  </si>
+  <si>
+    <t>2-12-1-50-700</t>
+  </si>
+  <si>
+    <t>2-13-1-50-800</t>
+  </si>
+  <si>
+    <t>2-14-1-50-900</t>
+  </si>
+  <si>
+    <t>2-15-1-50-1000</t>
+  </si>
+  <si>
+    <t>2-16-1-60-1100</t>
+  </si>
+  <si>
+    <t>2-17-1-70-1200</t>
+  </si>
+  <si>
+    <t>2-18-1-80-1300</t>
+  </si>
+  <si>
+    <t>2-19-1-90-1400</t>
+  </si>
+  <si>
+    <t>2-20-1-100-1500</t>
+  </si>
+  <si>
+    <t>2-21-1-110-1600</t>
+  </si>
+  <si>
+    <t>2-22-1-120-1700</t>
+  </si>
+  <si>
+    <t>2-23-1-130-1800</t>
+  </si>
+  <si>
+    <t>2-24-1-140-1900</t>
+  </si>
+  <si>
+    <t>2-25-1-150-2000</t>
+  </si>
+  <si>
+    <t>2-26-1-160-2100</t>
+  </si>
+  <si>
+    <t>2-27-1-170-2200</t>
+  </si>
+  <si>
+    <t>2-28-1-180-2300</t>
+  </si>
+  <si>
+    <t>2-29-1-190-2400</t>
+  </si>
+  <si>
+    <t>2-30-1-200-2500</t>
+  </si>
+  <si>
+    <t>3-1-2-100-12</t>
+  </si>
+  <si>
+    <t>3-2-2-500-14</t>
+  </si>
+  <si>
+    <t>3-11-1-50-33</t>
+  </si>
+  <si>
+    <t>3-12-1-50-36</t>
+  </si>
+  <si>
+    <t>3-13-1-50-39</t>
+  </si>
+  <si>
+    <t>3-14-1-50-42</t>
+  </si>
+  <si>
+    <t>3-15-1-50-45</t>
+  </si>
+  <si>
+    <t>3-16-1-60-48</t>
+  </si>
+  <si>
+    <t>3-17-1-70-51</t>
+  </si>
+  <si>
+    <t>3-18-1-80-54</t>
+  </si>
+  <si>
+    <t>3-19-1-90-57</t>
+  </si>
+  <si>
+    <t>3-20-1-100-60</t>
+  </si>
+  <si>
+    <t>3-21-1-110-63</t>
+  </si>
+  <si>
+    <t>3-22-1-120-66</t>
+  </si>
+  <si>
+    <t>3-23-1-130-69</t>
+  </si>
+  <si>
+    <t>3-24-1-140-72</t>
+  </si>
+  <si>
+    <t>3-25-1-150-75</t>
+  </si>
+  <si>
+    <t>3-26-1-160-78</t>
+  </si>
+  <si>
+    <t>3-27-1-170-81</t>
+  </si>
+  <si>
+    <t>3-28-1-180-84</t>
+  </si>
+  <si>
+    <t>3-29-1-190-87</t>
+  </si>
+  <si>
+    <t>3-30-1-200-90</t>
+  </si>
+  <si>
+    <t>4-1-1-50-2</t>
+  </si>
+  <si>
+    <t>4-2-1-60-4</t>
+  </si>
+  <si>
+    <t>4-3-1-70-6</t>
+  </si>
+  <si>
+    <t>4-4-1-80-8</t>
+  </si>
+  <si>
+    <t>4-5-1-90-10</t>
+  </si>
+  <si>
+    <t>4-6-1-100-12</t>
+  </si>
+  <si>
+    <t>4-7-1-110-14</t>
+  </si>
+  <si>
+    <t>4-8-1-120-16</t>
+  </si>
+  <si>
+    <t>4-9-1-130-18</t>
+  </si>
+  <si>
+    <t>4-10-1-140-20</t>
+  </si>
+  <si>
+    <t>4-11-1-150-22</t>
+  </si>
+  <si>
+    <t>4-12-1-160-24</t>
+  </si>
+  <si>
+    <t>4-14-1-180-28</t>
+  </si>
+  <si>
+    <t>4-15-1-190-30</t>
+  </si>
+  <si>
+    <t>4-16-1-200-32</t>
+  </si>
+  <si>
+    <t>4-17-1-200-34</t>
+  </si>
+  <si>
+    <t>4-18-1-200-36</t>
+  </si>
+  <si>
+    <t>4-19-1-200-38</t>
+  </si>
+  <si>
+    <t>4-20-1-200-40</t>
+  </si>
+  <si>
+    <t>4-21-1-200-42</t>
+  </si>
+  <si>
+    <t>4-22-1-200-44</t>
+  </si>
+  <si>
+    <t>4-23-1-200-46</t>
+  </si>
+  <si>
+    <t>4-24-1-200-48</t>
+  </si>
+  <si>
+    <t>4-25-1-200-50</t>
+  </si>
+  <si>
+    <t>4-26-1-200-52</t>
+  </si>
+  <si>
+    <t>4-27-1-200-54</t>
+  </si>
+  <si>
+    <t>4-28-1-200-56</t>
+  </si>
+  <si>
+    <t>4-29-1-200-58</t>
+  </si>
+  <si>
+    <t>4-30-1-200-60</t>
+  </si>
+  <si>
+    <t>5-1-1-50-10</t>
+  </si>
+  <si>
+    <t>5-2-1-60-20</t>
+  </si>
+  <si>
+    <t>5-3-1-70-30</t>
+  </si>
+  <si>
+    <t>5-4-1-80-40</t>
+  </si>
+  <si>
+    <t>5-5-1-90-50</t>
+  </si>
+  <si>
+    <t>5-6-1-100-60</t>
+  </si>
+  <si>
+    <t>5-7-1-110-70</t>
+  </si>
+  <si>
+    <t>5-8-1-120-80</t>
+  </si>
+  <si>
+    <t>5-9-1-130-90</t>
+  </si>
+  <si>
+    <t>5-10-1-140-100</t>
+  </si>
+  <si>
+    <t>5-11-1-150-120</t>
+  </si>
+  <si>
+    <t>5-12-1-160-140</t>
+  </si>
+  <si>
+    <t>5-13-1-170-160</t>
+  </si>
+  <si>
+    <t>5-14-1-180-180</t>
+  </si>
+  <si>
+    <t>5-15-1-190-200</t>
+  </si>
+  <si>
+    <t>5-16-1-200-220</t>
+  </si>
+  <si>
+    <t>5-17-1-200-240</t>
+  </si>
+  <si>
+    <t>5-18-1-200-260</t>
+  </si>
+  <si>
+    <t>5-19-1-200-280</t>
+  </si>
+  <si>
+    <t>5-20-1-200-300</t>
+  </si>
+  <si>
+    <t>5-21-1-200-320</t>
+  </si>
+  <si>
+    <t>5-22-1-200-340</t>
+  </si>
+  <si>
+    <t>5-23-1-200-360</t>
+  </si>
+  <si>
+    <t>5-24-1-200-380</t>
+  </si>
+  <si>
+    <t>5-25-1-200-400</t>
+  </si>
+  <si>
+    <t>5-26-1-200-420</t>
+  </si>
+  <si>
+    <t>5-27-1-200-440</t>
+  </si>
+  <si>
+    <t>5-28-1-200-460</t>
+  </si>
+  <si>
+    <t>5-29-1-200-480</t>
+  </si>
+  <si>
+    <t>5-30-1-200-500</t>
+  </si>
+  <si>
+    <t>ex)1-1-2-100-12</t>
+  </si>
+  <si>
+    <t>1-3-2-1A-16</t>
+  </si>
+  <si>
+    <t>1-4-2-5A-18</t>
+  </si>
+  <si>
+    <t>1-5-2-20A-20</t>
+  </si>
+  <si>
+    <t>1-6-2-100A-22</t>
+  </si>
+  <si>
+    <t>1-7-2-500A-24</t>
+  </si>
+  <si>
+    <t>2-3-2-1A-150</t>
+  </si>
+  <si>
+    <t>2-4-2-5A-200</t>
+  </si>
+  <si>
+    <t>2-5-2-20A-250</t>
+  </si>
+  <si>
+    <t>2-6-2-100A-300</t>
+  </si>
+  <si>
+    <t>2-7-2-500A-350</t>
+  </si>
+  <si>
+    <t>3-3-2-1A-16</t>
+  </si>
+  <si>
+    <t>3-4-2-5A-18</t>
+  </si>
+  <si>
+    <t>3-5-2-20A-20</t>
+  </si>
+  <si>
+    <t>3-6-2-100A-22</t>
+  </si>
+  <si>
+    <t>3-7-2-500A-24</t>
+  </si>
+  <si>
+    <t>1-8-2-1B-26</t>
+  </si>
+  <si>
+    <t>1-9-2-3B-28</t>
+  </si>
+  <si>
+    <t>1-10-2-5B-30</t>
+  </si>
+  <si>
+    <t>2-8-2-1B-400</t>
+  </si>
+  <si>
+    <t>2-9-2-3B-450</t>
+  </si>
+  <si>
+    <t>2-10-2-5B-500</t>
+  </si>
+  <si>
+    <t>3-8-2-1B-26</t>
+  </si>
+  <si>
+    <t>3-9-2-3B-28</t>
+  </si>
+  <si>
+    <t>3-10-2-5B-30</t>
+  </si>
+  <si>
+    <t>1번 스킬 1 레벨 찍을때
+구매방식이 2번 (게임 내 재화)
+100 필요, 스킬효과 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번 스킬 13 레벨 찍을때
+구매방식이 1번 (현금성 재화)
+170 필요, 스킬효과 26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃 번호-초당 점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-89A400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2B250A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-49B95A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-19C750B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에 넣을 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬번호-스킬레벨-스킬구매비용타입-스킬구매비용-효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2-2-500-14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +850,22 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -366,7 +884,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -970,13 +1488,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1187,6 +1742,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,16 +1778,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1223,12 +1796,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1238,11 +1805,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1271,6 +1844,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1280,9 +1862,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1331,7 +1910,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1364,26 +1943,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1416,23 +1978,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1608,11 +2153,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1633,31 +2178,31 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22"/>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="70"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="79"/>
+      <c r="F1" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="79"/>
+      <c r="H1" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="79"/>
+      <c r="J1" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="79"/>
+      <c r="L1" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="79"/>
+      <c r="N1" s="77"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -1699,7 +2244,7 @@
       <c r="M2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="70"/>
+      <c r="N2" s="77"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="R2" s="1"/>
@@ -1818,7 +2363,7 @@
         <v>315</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -42303,47 +42848,59 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.625" customWidth="1"/>
+    <col min="18" max="18" width="26.125" customWidth="1"/>
+    <col min="19" max="21" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="72"/>
-    </row>
-    <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="84"/>
+      <c r="D1" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="84"/>
+      <c r="H1" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="79"/>
+      <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+    </row>
+    <row r="2" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -42351,40 +42908,40 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="45" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="R2" s="73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>1</v>
       </c>
@@ -42398,7 +42955,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="15">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F3" s="15">
         <v>100</v>
@@ -42410,7 +42967,7 @@
         <v>50</v>
       </c>
       <c r="I3" s="15">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J3" s="15">
         <v>50</v>
@@ -42418,14 +42975,12 @@
       <c r="K3" s="16">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N3" s="42"/>
+      <c r="R3" s="71" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -42439,7 +42994,7 @@
         <v>500</v>
       </c>
       <c r="E4" s="2">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2">
         <v>500</v>
@@ -42451,7 +43006,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="2">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J4" s="2">
         <v>60</v>
@@ -42459,14 +43014,12 @@
       <c r="K4" s="6">
         <v>20</v>
       </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N4" s="42"/>
+      <c r="R4" s="71" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -42480,7 +43033,7 @@
         <v>1000</v>
       </c>
       <c r="E5" s="2">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F5" s="2">
         <v>1000</v>
@@ -42492,7 +43045,7 @@
         <v>70</v>
       </c>
       <c r="I5" s="2">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J5" s="2">
         <v>70</v>
@@ -42500,14 +43053,12 @@
       <c r="K5" s="6">
         <v>30</v>
       </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N5" s="42"/>
+      <c r="R5" s="71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -42521,7 +43072,7 @@
         <v>5000</v>
       </c>
       <c r="E6" s="2">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="F6" s="2">
         <v>5000</v>
@@ -42533,7 +43084,7 @@
         <v>80</v>
       </c>
       <c r="I6" s="2">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J6" s="2">
         <v>80</v>
@@ -42542,10 +43093,13 @@
         <v>40</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+      <c r="R6" s="71" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -42559,7 +43113,7 @@
         <v>20000</v>
       </c>
       <c r="E7" s="2">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="F7" s="2">
         <v>20000</v>
@@ -42570,8 +43124,8 @@
       <c r="H7" s="2">
         <v>90</v>
       </c>
-      <c r="I7" s="2">
-        <v>28</v>
+      <c r="I7" s="15">
+        <v>10</v>
       </c>
       <c r="J7" s="2">
         <v>90</v>
@@ -42579,8 +43133,14 @@
       <c r="K7" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>200</v>
+      </c>
+      <c r="R7" s="71" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -42594,7 +43154,7 @@
         <v>100000</v>
       </c>
       <c r="E8" s="2">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="F8" s="2">
         <v>100000</v>
@@ -42606,7 +43166,7 @@
         <v>100</v>
       </c>
       <c r="I8" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J8" s="2">
         <v>100</v>
@@ -42614,8 +43174,16 @@
       <c r="K8" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M8" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="R8" s="71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -42629,7 +43197,7 @@
         <v>500000</v>
       </c>
       <c r="E9" s="2">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="F9" s="2">
         <v>500000</v>
@@ -42641,7 +43209,7 @@
         <v>110</v>
       </c>
       <c r="I9" s="2">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="J9" s="2">
         <v>110</v>
@@ -42649,8 +43217,14 @@
       <c r="K9" s="6">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="R9" s="71" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -42664,7 +43238,7 @@
         <v>1000000</v>
       </c>
       <c r="E10" s="2">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="F10" s="2">
         <v>1000000</v>
@@ -42676,7 +43250,7 @@
         <v>120</v>
       </c>
       <c r="I10" s="2">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="J10" s="2">
         <v>120</v>
@@ -42684,8 +43258,14 @@
       <c r="K10" s="6">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="R10" s="71" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -42699,7 +43279,7 @@
         <v>3000000</v>
       </c>
       <c r="E11" s="2">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="F11" s="2">
         <v>3000000</v>
@@ -42710,8 +43290,8 @@
       <c r="H11" s="2">
         <v>130</v>
       </c>
-      <c r="I11" s="2">
-        <v>36</v>
+      <c r="I11" s="15">
+        <v>18</v>
       </c>
       <c r="J11" s="2">
         <v>130</v>
@@ -42719,8 +43299,14 @@
       <c r="K11" s="6">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="71" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -42734,7 +43320,7 @@
         <v>5000000</v>
       </c>
       <c r="E12" s="2">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="F12" s="2">
         <v>5000000</v>
@@ -42746,7 +43332,7 @@
         <v>140</v>
       </c>
       <c r="I12" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2">
         <v>140</v>
@@ -42754,25 +43340,33 @@
       <c r="K12" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M12" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="R12" s="71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>11</v>
       </c>
       <c r="B13" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2">
         <v>33</v>
       </c>
       <c r="D13" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="F13" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2">
         <v>33</v>
@@ -42781,7 +43375,7 @@
         <v>150</v>
       </c>
       <c r="I13" s="2">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J13" s="2">
         <v>150</v>
@@ -42789,25 +43383,31 @@
       <c r="K13" s="6">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="R13" s="71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>12</v>
       </c>
       <c r="B14" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2">
         <v>36</v>
       </c>
       <c r="D14" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F14" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G14" s="2">
         <v>36</v>
@@ -42816,7 +43416,7 @@
         <v>160</v>
       </c>
       <c r="I14" s="2">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="J14" s="2">
         <v>160</v>
@@ -42824,25 +43424,31 @@
       <c r="K14" s="6">
         <v>140</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="R14" s="71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>13</v>
       </c>
       <c r="B15" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2">
         <v>39</v>
       </c>
       <c r="D15" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F15" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G15" s="2">
         <v>39</v>
@@ -42850,8 +43456,8 @@
       <c r="H15" s="2">
         <v>170</v>
       </c>
-      <c r="I15" s="2">
-        <v>52</v>
+      <c r="I15" s="15">
+        <v>26</v>
       </c>
       <c r="J15" s="2">
         <v>170</v>
@@ -42859,25 +43465,28 @@
       <c r="K15" s="6">
         <v>160</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R15" s="71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>14</v>
       </c>
       <c r="B16" s="10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2">
         <v>42</v>
       </c>
       <c r="D16" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F16" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G16" s="2">
         <v>42</v>
@@ -42886,7 +43495,7 @@
         <v>180</v>
       </c>
       <c r="I16" s="2">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="J16" s="2">
         <v>180</v>
@@ -42894,8 +43503,11 @@
       <c r="K16" s="6">
         <v>180</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R16" s="71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>15</v>
       </c>
@@ -42909,7 +43521,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="2">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="2">
         <v>50</v>
@@ -42921,7 +43533,7 @@
         <v>190</v>
       </c>
       <c r="I17" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J17" s="2">
         <v>190</v>
@@ -42929,8 +43541,11 @@
       <c r="K17" s="6">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R17" s="71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>16</v>
       </c>
@@ -42944,7 +43559,7 @@
         <v>60</v>
       </c>
       <c r="E18" s="2">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="F18" s="2">
         <v>60</v>
@@ -42956,7 +43571,7 @@
         <v>200</v>
       </c>
       <c r="I18" s="2">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J18" s="2">
         <v>200</v>
@@ -42964,8 +43579,11 @@
       <c r="K18" s="6">
         <v>220</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R18" s="71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>17</v>
       </c>
@@ -42979,7 +43597,7 @@
         <v>70</v>
       </c>
       <c r="E19" s="2">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F19" s="2">
         <v>70</v>
@@ -42990,8 +43608,8 @@
       <c r="H19" s="2">
         <v>200</v>
       </c>
-      <c r="I19" s="2">
-        <v>68</v>
+      <c r="I19" s="15">
+        <v>34</v>
       </c>
       <c r="J19" s="2">
         <v>200</v>
@@ -42999,8 +43617,11 @@
       <c r="K19" s="6">
         <v>240</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R19" s="71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>18</v>
       </c>
@@ -43014,7 +43635,7 @@
         <v>80</v>
       </c>
       <c r="E20" s="2">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="F20" s="2">
         <v>80</v>
@@ -43026,7 +43647,7 @@
         <v>200</v>
       </c>
       <c r="I20" s="2">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="J20" s="2">
         <v>200</v>
@@ -43034,8 +43655,11 @@
       <c r="K20" s="6">
         <v>260</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R20" s="71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>19</v>
       </c>
@@ -43049,7 +43673,7 @@
         <v>90</v>
       </c>
       <c r="E21" s="2">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="F21" s="2">
         <v>90</v>
@@ -43061,7 +43685,7 @@
         <v>200</v>
       </c>
       <c r="I21" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J21" s="2">
         <v>200</v>
@@ -43069,8 +43693,11 @@
       <c r="K21" s="6">
         <v>280</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R21" s="71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>20</v>
       </c>
@@ -43084,7 +43711,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="2">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="F22" s="2">
         <v>100</v>
@@ -43096,7 +43723,7 @@
         <v>200</v>
       </c>
       <c r="I22" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J22" s="2">
         <v>200</v>
@@ -43104,8 +43731,11 @@
       <c r="K22" s="6">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R22" s="71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>21</v>
       </c>
@@ -43119,7 +43749,7 @@
         <v>110</v>
       </c>
       <c r="E23" s="2">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="F23" s="2">
         <v>110</v>
@@ -43130,8 +43760,8 @@
       <c r="H23" s="2">
         <v>200</v>
       </c>
-      <c r="I23" s="2">
-        <v>84</v>
+      <c r="I23" s="15">
+        <v>42</v>
       </c>
       <c r="J23" s="2">
         <v>200</v>
@@ -43139,8 +43769,11 @@
       <c r="K23" s="6">
         <v>320</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R23" s="71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>22</v>
       </c>
@@ -43154,7 +43787,7 @@
         <v>120</v>
       </c>
       <c r="E24" s="2">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="F24" s="2">
         <v>120</v>
@@ -43166,7 +43799,7 @@
         <v>200</v>
       </c>
       <c r="I24" s="2">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="J24" s="2">
         <v>200</v>
@@ -43174,8 +43807,11 @@
       <c r="K24" s="6">
         <v>340</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R24" s="71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>23</v>
       </c>
@@ -43189,7 +43825,7 @@
         <v>130</v>
       </c>
       <c r="E25" s="2">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="F25" s="2">
         <v>130</v>
@@ -43201,7 +43837,7 @@
         <v>200</v>
       </c>
       <c r="I25" s="2">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="J25" s="2">
         <v>200</v>
@@ -43209,8 +43845,11 @@
       <c r="K25" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R25" s="71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>24</v>
       </c>
@@ -43224,7 +43863,7 @@
         <v>140</v>
       </c>
       <c r="E26" s="2">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="F26" s="2">
         <v>140</v>
@@ -43236,7 +43875,7 @@
         <v>200</v>
       </c>
       <c r="I26" s="2">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="J26" s="2">
         <v>200</v>
@@ -43244,8 +43883,11 @@
       <c r="K26" s="6">
         <v>380</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R26" s="71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>25</v>
       </c>
@@ -43259,7 +43901,7 @@
         <v>150</v>
       </c>
       <c r="E27" s="2">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="F27" s="2">
         <v>150</v>
@@ -43270,8 +43912,8 @@
       <c r="H27" s="2">
         <v>200</v>
       </c>
-      <c r="I27" s="2">
-        <v>100</v>
+      <c r="I27" s="15">
+        <v>50</v>
       </c>
       <c r="J27" s="2">
         <v>200</v>
@@ -43279,8 +43921,11 @@
       <c r="K27" s="6">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R27" s="71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>26</v>
       </c>
@@ -43294,7 +43939,7 @@
         <v>160</v>
       </c>
       <c r="E28" s="2">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="F28" s="2">
         <v>160</v>
@@ -43306,7 +43951,7 @@
         <v>200</v>
       </c>
       <c r="I28" s="2">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="J28" s="2">
         <v>200</v>
@@ -43314,8 +43959,11 @@
       <c r="K28" s="6">
         <v>420</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R28" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>27</v>
       </c>
@@ -43329,7 +43977,7 @@
         <v>170</v>
       </c>
       <c r="E29" s="2">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="F29" s="2">
         <v>170</v>
@@ -43341,7 +43989,7 @@
         <v>200</v>
       </c>
       <c r="I29" s="2">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="J29" s="2">
         <v>200</v>
@@ -43349,8 +43997,11 @@
       <c r="K29" s="6">
         <v>440</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R29" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>28</v>
       </c>
@@ -43364,7 +44015,7 @@
         <v>180</v>
       </c>
       <c r="E30" s="2">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="F30" s="2">
         <v>180</v>
@@ -43376,7 +44027,7 @@
         <v>200</v>
       </c>
       <c r="I30" s="2">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="J30" s="2">
         <v>200</v>
@@ -43384,8 +44035,11 @@
       <c r="K30" s="6">
         <v>460</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R30" s="71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>29</v>
       </c>
@@ -43399,7 +44053,7 @@
         <v>190</v>
       </c>
       <c r="E31" s="2">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="F31" s="2">
         <v>190</v>
@@ -43410,8 +44064,8 @@
       <c r="H31" s="2">
         <v>200</v>
       </c>
-      <c r="I31" s="2">
-        <v>116</v>
+      <c r="I31" s="15">
+        <v>58</v>
       </c>
       <c r="J31" s="2">
         <v>200</v>
@@ -43419,8 +44073,11 @@
       <c r="K31" s="6">
         <v>480</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R31" s="71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="21">
         <v>30</v>
       </c>
@@ -43434,7 +44091,7 @@
         <v>200</v>
       </c>
       <c r="E32" s="8">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="F32" s="8">
         <v>200</v>
@@ -43446,7 +44103,7 @@
         <v>200</v>
       </c>
       <c r="I32" s="8">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J32" s="8">
         <v>200</v>
@@ -43454,9 +44111,609 @@
       <c r="K32" s="9">
         <v>500</v>
       </c>
+      <c r="R32" s="71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R33" s="71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R34" s="71" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R35" s="71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R36" s="71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R37" s="71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R38" s="71" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R39" s="71" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R40" s="71" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R41" s="71" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R42" s="71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R43" s="71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R44" s="71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R45" s="71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R46" s="71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R47" s="71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R48" s="71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R49" s="71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R50" s="71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R51" s="71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R52" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R53" s="71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R54" s="71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R55" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R56" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R57" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R58" s="71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R59" s="71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R60" s="71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R61" s="71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R62" s="71" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R63" s="71" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R64" s="71" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R65" s="71" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R66" s="71" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R67" s="71" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R68" s="71" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R69" s="71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R70" s="71" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R71" s="71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R72" s="71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R73" s="71" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R74" s="71" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R75" s="71" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R76" s="71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R77" s="71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R78" s="71" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R79" s="71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R80" s="71" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R81" s="71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R82" s="71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R83" s="71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R84" s="71" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R85" s="71" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R86" s="71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R87" s="71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R88" s="71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R89" s="71" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R90" s="71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R91" s="71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R92" s="71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R93" s="71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R94" s="71" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R95" s="71" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R96" s="71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R97" s="71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R98" s="71" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R99" s="71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R100" s="71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R101" s="71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R102" s="71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R103" s="71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R104" s="71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R105" s="71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R106" s="71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R107" s="71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R108" s="71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R109" s="71" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R110" s="71" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R111" s="71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R112" s="71" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R113" s="71" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R114" s="71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R115" s="71" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R116" s="71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R117" s="71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R118" s="71" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R119" s="71" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R120" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R121" s="71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R122" s="71" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R123" s="71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R124" s="71" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R125" s="71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R126" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R127" s="71" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R128" s="71" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R129" s="71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R130" s="71" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R131" s="71" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R132" s="71" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R133" s="71" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R134" s="71" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R135" s="71" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R136" s="71" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R137" s="71" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R138" s="71" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R139" s="71" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R140" s="71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R141" s="71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R142" s="71" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="143" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R143" s="71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R144" s="71" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R145" s="71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="146" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R146" s="71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="147" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R147" s="71" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R148" s="71" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="149" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R149" s="71" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R150" s="71" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="18:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R151" s="72" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="M8:O10"/>
+    <mergeCell ref="M12:O14"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -43469,11 +44726,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -43481,80 +44738,107 @@
     <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" s="16">
         <v>89396</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="75" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6">
         <v>2249256</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F3" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6">
         <v>49095072</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F4" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6">
         <v>995300768</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="38" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" s="9">
         <v>19276886144</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -43567,11 +44851,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="H1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="2" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="50" t="s">
@@ -43656,12 +44943,12 @@
     </row>
     <row r="8" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="60" t="s">
@@ -43676,7 +44963,7 @@
       <c r="D10" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="82" t="s">
         <v>50</v>
       </c>
     </row>
@@ -43687,13 +44974,13 @@
       <c r="B11" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="101" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="55">
         <v>0.08</v>
       </c>
-      <c r="E11" s="87"/>
+      <c r="E11" s="82"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -43702,11 +44989,11 @@
       <c r="B12" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="96"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="54">
         <v>0.12</v>
       </c>
-      <c r="E12" s="87"/>
+      <c r="E12" s="82"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -43715,7 +45002,7 @@
       <c r="B13" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="96"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="54">
         <v>0.1</v>
       </c>
@@ -43727,7 +45014,7 @@
       <c r="B14" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="96"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="54">
         <v>0.04</v>
       </c>
@@ -43739,19 +45026,19 @@
       <c r="B15" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="97"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="56">
         <v>0.08</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="60" t="s">
@@ -43766,7 +45053,7 @@
       <c r="D18" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="91" t="s">
         <v>53</v>
       </c>
     </row>
@@ -43777,13 +45064,13 @@
       <c r="B19" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="104" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="55">
         <v>0.03</v>
       </c>
-      <c r="E19" s="88"/>
+      <c r="E19" s="91"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -43792,7 +45079,7 @@
       <c r="B20" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="77"/>
+      <c r="C20" s="105"/>
       <c r="D20" s="54">
         <v>0.05</v>
       </c>
@@ -43804,7 +45091,7 @@
       <c r="B21" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="77"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -43816,7 +45103,7 @@
       <c r="B22" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="77"/>
+      <c r="C22" s="105"/>
       <c r="D22" s="54">
         <v>0.05</v>
       </c>
@@ -43828,39 +45115,39 @@
       <c r="B23" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="78"/>
+      <c r="C23" s="106"/>
       <c r="D23" s="56">
         <v>0.05</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="16"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
     </row>
     <row r="27" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -43870,10 +45157,10 @@
     <mergeCell ref="C11:C15"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="A25:D25"/>
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
